--- a/Data/ArtoKivirantaMMkisaveikkaus2022.xlsx
+++ b/Data/ArtoKivirantaMMkisaveikkaus2022.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="84">
   <si>
     <t xml:space="preserve">MM-KISAVEIKKAUS 2022</t>
   </si>
@@ -100,10 +100,13 @@
     <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
+    <t xml:space="preserve">Lautaro Martinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentiina</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lautaro Matinez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentiina</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
@@ -692,15 +695,15 @@
   <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.07421875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="23.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="23.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="8.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="23.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="23.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="8.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="8.08"/>
@@ -712,7 +715,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="18.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="8.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="2.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="12.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="12.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="2" width="8.08"/>
   </cols>
   <sheetData>
@@ -834,7 +837,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O6" s="21" t="s">
         <v>20</v>
@@ -848,19 +851,19 @@
     </row>
     <row r="7" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="20" t="n">
         <v>3</v>
@@ -872,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,13 +892,13 @@
         <v>44886</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="20" t="n">
         <v>1</v>
@@ -907,30 +910,30 @@
         <v>2</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="20" t="n">
         <v>2</v>
@@ -942,21 +945,21 @@
         <v>2</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>20</v>
@@ -965,7 +968,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="20" t="n">
         <v>4</v>
@@ -977,27 +980,27 @@
         <v>0</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="20" t="n">
         <v>2</v>
@@ -1011,19 +1014,19 @@
     </row>
     <row r="12" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="18" t="n">
         <v>44887</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="20" t="n">
         <v>1</v>
@@ -1037,19 +1040,19 @@
     </row>
     <row r="13" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="20" t="n">
         <v>2</v>
@@ -1063,19 +1066,19 @@
     </row>
     <row r="14" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="18" t="n">
         <v>44888</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="20" t="n">
         <v>0</v>
@@ -1089,19 +1092,19 @@
     </row>
     <row r="15" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="18" t="n">
         <v>44888</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="20" t="n">
         <v>3</v>
@@ -1115,19 +1118,19 @@
     </row>
     <row r="16" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="18" t="n">
         <v>44888</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" s="20" t="n">
         <v>3</v>
@@ -1141,19 +1144,19 @@
     </row>
     <row r="17" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="18" t="n">
         <v>44888</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" s="20" t="n">
         <v>2</v>
@@ -1167,19 +1170,19 @@
     </row>
     <row r="18" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="18" t="n">
         <v>44889</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" s="20" t="n">
         <v>1</v>
@@ -1193,19 +1196,19 @@
     </row>
     <row r="19" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="18" t="n">
         <v>44889</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19" s="20" t="n">
         <v>4</v>
@@ -1219,19 +1222,19 @@
     </row>
     <row r="20" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="18" t="n">
         <v>44889</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20" s="20" t="n">
         <v>1</v>
@@ -1245,19 +1248,19 @@
     </row>
     <row r="21" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="18" t="n">
         <v>44889</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="20" t="n">
         <v>2</v>
@@ -1271,19 +1274,19 @@
     </row>
     <row r="22" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="18" t="n">
         <v>44890</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F22" s="20" t="n">
         <v>2</v>
@@ -1309,7 +1312,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" s="20" t="n">
         <v>1</v>
@@ -1329,7 +1332,7 @@
         <v>44890</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>17</v>
@@ -1349,19 +1352,19 @@
     </row>
     <row r="25" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="18" t="n">
         <v>44890</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F25" s="20" t="n">
         <v>3</v>
@@ -1375,19 +1378,19 @@
     </row>
     <row r="26" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="18" t="n">
         <v>44891</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" s="20" t="n">
         <v>2</v>
@@ -1401,19 +1404,19 @@
     </row>
     <row r="27" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="18" t="n">
         <v>44891</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F27" s="20" t="n">
         <v>1</v>
@@ -1427,19 +1430,19 @@
     </row>
     <row r="28" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="18" t="n">
         <v>44891</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28" s="20" t="n">
         <v>3</v>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="29" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="18" t="n">
         <v>44891</v>
@@ -1465,7 +1468,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F29" s="20" t="n">
         <v>4</v>
@@ -1479,19 +1482,19 @@
     </row>
     <row r="30" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="18" t="n">
         <v>44892</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F30" s="20" t="n">
         <v>2</v>
@@ -1505,19 +1508,19 @@
     </row>
     <row r="31" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="18" t="n">
         <v>44892</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31" s="20" t="n">
         <v>1</v>
@@ -1531,19 +1534,19 @@
     </row>
     <row r="32" s="17" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="18" t="n">
         <v>44892</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32" s="20" t="n">
         <v>3</v>
@@ -1557,19 +1560,19 @@
     </row>
     <row r="33" s="17" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="18" t="n">
         <v>44892</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F33" s="20" t="n">
         <v>1</v>
@@ -1583,19 +1586,19 @@
     </row>
     <row r="34" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" s="18" t="n">
         <v>44893</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F34" s="20" t="n">
         <v>1</v>
@@ -1609,19 +1612,19 @@
     </row>
     <row r="35" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" s="18" t="n">
         <v>44893</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F35" s="20" t="n">
         <v>1</v>
@@ -1635,19 +1638,19 @@
     </row>
     <row r="36" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" s="18" t="n">
         <v>44893</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36" s="20" t="n">
         <v>4</v>
@@ -1661,19 +1664,19 @@
     </row>
     <row r="37" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B37" s="18" t="n">
         <v>44893</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F37" s="20" t="n">
         <v>2</v>
@@ -1699,7 +1702,7 @@
         <v>17</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F38" s="20" t="n">
         <v>2</v>
@@ -1719,7 +1722,7 @@
         <v>44894</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>17</v>
@@ -1739,19 +1742,19 @@
     </row>
     <row r="40" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B40" s="18" t="n">
         <v>44894</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F40" s="20" t="n">
         <v>1</v>
@@ -1765,19 +1768,19 @@
     </row>
     <row r="41" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B41" s="18" t="n">
         <v>44894</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F41" s="20" t="n">
         <v>2</v>
@@ -1791,19 +1794,19 @@
     </row>
     <row r="42" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="18" t="n">
         <v>44895</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F42" s="20" t="n">
         <v>0</v>
@@ -1817,19 +1820,19 @@
     </row>
     <row r="43" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="18" t="n">
         <v>44895</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43" s="20" t="n">
         <v>1</v>
@@ -1843,13 +1846,13 @@
     </row>
     <row r="44" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" s="18" t="n">
         <v>44895</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>17</v>
@@ -1869,19 +1872,19 @@
     </row>
     <row r="45" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B45" s="18" t="n">
         <v>44895</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F45" s="20" t="n">
         <v>1</v>
@@ -1895,19 +1898,19 @@
     </row>
     <row r="46" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="18" t="n">
         <v>44896</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F46" s="20" t="n">
         <v>1</v>
@@ -1921,19 +1924,19 @@
     </row>
     <row r="47" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="18" t="n">
         <v>44896</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F47" s="20" t="n">
         <v>1</v>
@@ -1947,19 +1950,19 @@
     </row>
     <row r="48" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" s="18" t="n">
         <v>44896</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F48" s="20" t="n">
         <v>1</v>
@@ -1973,19 +1976,19 @@
     </row>
     <row r="49" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="18" t="n">
         <v>44896</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F49" s="20" t="n">
         <v>0</v>
@@ -1999,19 +2002,19 @@
     </row>
     <row r="50" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" s="18" t="n">
         <v>44897</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F50" s="20" t="n">
         <v>0</v>
@@ -2025,19 +2028,19 @@
     </row>
     <row r="51" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" s="18" t="n">
         <v>44897</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F51" s="20" t="n">
         <v>1</v>
@@ -2051,19 +2054,19 @@
     </row>
     <row r="52" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" s="18" t="n">
         <v>44897</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52" s="20" t="n">
         <v>1</v>
@@ -2077,19 +2080,19 @@
     </row>
     <row r="53" s="17" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" s="18" t="n">
         <v>44897</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F53" s="20" t="n">
         <v>1</v>
@@ -2120,10 +2123,10 @@
     </row>
     <row r="59" s="22" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F59" s="24" t="n">
         <v>10</v>
@@ -2133,7 +2136,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F60" s="3"/>
     </row>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="23"/>
@@ -2162,7 +2165,7 @@
     </row>
     <row r="64" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" s="30"/>
       <c r="F64" s="3"/>
@@ -2171,14 +2174,14 @@
     </row>
     <row r="65" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" s="30"/>
       <c r="J65" s="17"/>
     </row>
     <row r="66" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" s="30"/>
       <c r="F66" s="23"/>
@@ -2193,28 +2196,28 @@
     </row>
     <row r="68" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" s="30"/>
       <c r="J68" s="17"/>
     </row>
     <row r="69" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" s="30"/>
       <c r="J69" s="17"/>
     </row>
     <row r="70" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" s="30"/>
       <c r="J70" s="17"/>
     </row>
     <row r="71" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" s="30"/>
       <c r="J71" s="17"/>
@@ -2226,7 +2229,7 @@
     </row>
     <row r="73" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" s="30"/>
       <c r="J73" s="17"/>
@@ -2238,7 +2241,7 @@
     </row>
     <row r="75" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75" s="30"/>
       <c r="J75" s="17"/>
@@ -2250,7 +2253,7 @@
     </row>
     <row r="77" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="30"/>
       <c r="I77" s="31"/>
@@ -2263,7 +2266,7 @@
     </row>
     <row r="79" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="30"/>
       <c r="J79" s="17"/>
@@ -2275,14 +2278,14 @@
     </row>
     <row r="81" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="30"/>
       <c r="J81" s="17"/>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" s="31"/>
     </row>
@@ -2291,12 +2294,12 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="32"/>
       <c r="D84" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E84" s="32"/>
       <c r="J84" s="17"/>
@@ -2311,7 +2314,7 @@
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B86" s="4"/>
     </row>
